--- a/data/CS7/Market Data/CS7_market_data_2030.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263378DF-A8A2-498D-918F-9B67D9157E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025334DD-F40B-4372-B273-1B8119A09CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS7/Market Data/CS7_market_data_2030.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025334DD-F40B-4372-B273-1B8119A09CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE49A32B-2252-481F-A8C1-74D30B10259E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS7/Market Data/CS7_market_data_2030.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE49A32B-2252-481F-A8C1-74D30B10259E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5730E07-83CA-4913-9C04-8059571A95C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS7/Market Data/CS7_market_data_2030.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5730E07-83CA-4913-9C04-8059571A95C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354E92B4-883E-437F-A74B-1A77D889EF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS7/Market Data/CS7_market_data_2030.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354E92B4-883E-437F-A74B-1A77D889EF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C017584-C6F1-4B4D-AA9C-EFC06D7C02DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="-13320" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS7/Market Data/CS7_market_data_2030.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C017584-C6F1-4B4D-AA9C-EFC06D7C02DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBFB228-6F32-4373-88E0-EB4794AE503B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="-13320" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31500" yWindow="-11580" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2245,16 +2245,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.6</v>
       </c>
       <c r="D1" s="1">
-        <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="E1" s="1">
-        <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS7/Market Data/CS7_market_data_2030.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBFB228-6F32-4373-88E0-EB4794AE503B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D72939-5EF7-4333-8B43-948F8EA9946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31500" yWindow="-11580" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2245,13 +2245,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>0.6</v>
+        <f>1/$B$1</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <v>0.2</v>
+        <f t="shared" ref="D1:E1" si="0">1/$B$1</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS7/Market Data/CS7_market_data_2030.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D72939-5EF7-4333-8B43-948F8EA9946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6E390C-9E41-4BE6-9DC6-C14BF831EA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS7/Market Data/CS7_market_data_2030.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6E390C-9E41-4BE6-9DC6-C14BF831EA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AB8659-E4E0-47C2-BD99-4C5DA2F11D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS7/Market Data/CS7_market_data_2030.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AB8659-E4E0-47C2-BD99-4C5DA2F11D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A447879-B60F-4F1C-A82C-19A6FC913848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="74310" yWindow="5265" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
